--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/15/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.90889999999998</v>
+        <v>-20.67159999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.61920000000001</v>
+        <v>-22.65120000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.33929999999998</v>
+        <v>-19.51909999999998</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.56529999999998</v>
+        <v>-21.6807</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.4927</v>
+        <v>-19.8821</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.0854</v>
+        <v>-22.0322</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.33719999999997</v>
+        <v>-21.42699999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.12599999999999</v>
+        <v>-21.14369999999998</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.1176</v>
+        <v>-20.04159999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.6975</v>
+        <v>-21.83060000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.98699999999999</v>
+        <v>-21.96899999999999</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.09079999999999</v>
+        <v>-21.9888</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.53490000000001</v>
+        <v>-22.69830000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.0451</v>
+        <v>-22.1032</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.0592</v>
+        <v>-22.0495</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.46729999999999</v>
+        <v>-21.5025</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.97289999999998</v>
+        <v>-20.02829999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.84169999999997</v>
+        <v>-21.81139999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.3794</v>
+        <v>-21.42760000000002</v>
       </c>
       <c r="B92" t="n">
         <v>6.16</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.80039999999999</v>
+        <v>-21.75229999999999</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
